--- a/biology/Botanique/Jardin_de_Vitaly/Jardin_de_Vitaly.xlsx
+++ b/biology/Botanique/Jardin_de_Vitaly/Jardin_de_Vitaly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin de Vitaly est un espace vert situé place Mélina-Mercouri ou passage Hypatie-d'Alexandrie dans le 20e arrondissement de Paris, dans le quartier de Charonne.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin de Vitaly est accessible à distance par la ligne 2 à la station Alexandre Dumas.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin prend une forme irrégulière, en longueur, de 900 m2, en cœur d'îlot, définie par les immeubles du passage Fréquel et de la rue des Orteaux.
 </t>
@@ -574,7 +590,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin reprend le prénom de Vitaly Statsynsky (ru), artiste et illustrateur soviétique puis français, ayant vécu dans le quartier avant sa rénovation.
 </t>
@@ -605,7 +623,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terrain qu'occupera le jardin était précédemment une friche industrielle dans un quartier insalubre. Celui-ci a fait l'objet d'une opération immobilière lors de la création d'un nouvel écoquartier, nommé Fréquel-Fontarabie. De nouveaux immeubles ont été construits ou réhabilités le long des rues mais le cœur d'îlot a été laissé libre pour y aménager cet espace vert et la place Mélina-Mercouri. Le jardin a ouvert en 2014.
 </t>
